--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9484,6 +9484,41 @@
         <v>531100</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I261" t="n">
+        <v>893700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I261"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9519,6 +9519,41 @@
         <v>893700</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I262" t="n">
+        <v>834300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9554,6 +9554,41 @@
         <v>834300</v>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I263" t="n">
+        <v>519000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I263"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9589,6 +9589,41 @@
         <v>519000</v>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I264" t="n">
+        <v>201500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9624,6 +9624,41 @@
         <v>201500</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I265" t="n">
+        <v>309000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9659,6 +9659,41 @@
         <v>309000</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I266" t="n">
+        <v>79000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9694,6 +9694,41 @@
         <v>79000</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I267" t="n">
+        <v>795000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9729,6 +9729,41 @@
         <v>795000</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I268" t="n">
+        <v>471600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9764,6 +9764,41 @@
         <v>471600</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I269" t="n">
+        <v>266000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9799,6 +9799,41 @@
         <v>266000</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1303900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9834,6 +9834,41 @@
         <v>1303900</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I271" t="n">
+        <v>418800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9869,6 +9869,41 @@
         <v>418800</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I272" t="n">
+        <v>338400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I272"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9904,6 +9904,76 @@
         <v>338400</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I273" t="n">
+        <v>124800</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I274" t="n">
+        <v>862000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I274"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9974,6 +9974,76 @@
         <v>862000</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I275" t="n">
+        <v>470700</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I276" t="n">
+        <v>219100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I276"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10044,6 +10044,41 @@
         <v>219100</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I277" t="n">
+        <v>270000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I277"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10079,6 +10079,41 @@
         <v>270000</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I278" t="n">
+        <v>461600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10114,6 +10114,41 @@
         <v>461600</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I279" t="n">
+        <v>303000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10149,6 +10149,41 @@
         <v>303000</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1761800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10184,6 +10184,76 @@
         <v>1761800</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I281" t="n">
+        <v>940100</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I282" t="n">
+        <v>227000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I282"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10254,6 +10254,41 @@
         <v>227000</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I283" t="n">
+        <v>723500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I283"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10289,6 +10289,41 @@
         <v>723500</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1608000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7771,11 +7771,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7789,28 +7789,28 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F212" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="G212" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H212" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="I212" t="n">
-        <v>321100</v>
+        <v>1812900</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7824,28 +7824,28 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="F213" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G213" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="H213" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="I213" t="n">
-        <v>358000</v>
+        <v>858500</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7859,28 +7859,28 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="F214" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="G214" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H214" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="I214" t="n">
-        <v>161400</v>
+        <v>224100</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7894,28 +7894,28 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="F215" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G215" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H215" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I215" t="n">
-        <v>69800</v>
+        <v>604900</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7929,28 +7929,28 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="F216" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G216" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H216" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I216" t="n">
-        <v>252000</v>
+        <v>898900</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7964,28 +7964,28 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="F217" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G217" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H217" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I217" t="n">
-        <v>144500</v>
+        <v>453300</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7999,28 +7999,28 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="F218" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="G218" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="H218" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="I218" t="n">
-        <v>105000</v>
+        <v>48800</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8034,28 +8034,28 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F219" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="G219" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H219" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="I219" t="n">
-        <v>404300</v>
+        <v>1904100</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8069,28 +8069,28 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="F220" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="G220" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H220" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>197500</v>
+        <v>734000</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8104,28 +8104,28 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="F221" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="G221" t="n">
         <v>0.165</v>
       </c>
       <c r="H221" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I221" t="n">
-        <v>307000</v>
+        <v>321100</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8139,7 +8139,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="F222" t="n">
         <v>0.17</v>
@@ -8148,19 +8148,19 @@
         <v>0.165</v>
       </c>
       <c r="H222" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="I222" t="n">
-        <v>146300</v>
+        <v>358000</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8174,28 +8174,28 @@
         </is>
       </c>
       <c r="E223" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F223" t="n">
         <v>0.17</v>
       </c>
-      <c r="F223" t="n">
-        <v>0.175</v>
-      </c>
       <c r="G223" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="H223" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="I223" t="n">
-        <v>159500</v>
+        <v>161400</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="F224" t="n">
         <v>0.17</v>
       </c>
       <c r="G224" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="H224" t="n">
         <v>0.17</v>
       </c>
       <c r="I224" t="n">
-        <v>40000</v>
+        <v>69800</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8256,16 +8256,16 @@
         <v>0.17</v>
       </c>
       <c r="I225" t="n">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8279,28 +8279,28 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="F226" t="n">
         <v>0.17</v>
       </c>
       <c r="G226" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="H226" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I226" t="n">
-        <v>267000</v>
+        <v>144500</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8320,22 +8320,22 @@
         <v>0.165</v>
       </c>
       <c r="G227" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="H227" t="n">
         <v>0.165</v>
       </c>
       <c r="I227" t="n">
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8361,16 +8361,16 @@
         <v>0.16</v>
       </c>
       <c r="I228" t="n">
-        <v>516700</v>
+        <v>404300</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8384,28 +8384,28 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="F229" t="n">
         <v>0.165</v>
       </c>
       <c r="G229" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="H229" t="n">
         <v>0.165</v>
       </c>
       <c r="I229" t="n">
-        <v>10000</v>
+        <v>197500</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8419,28 +8419,28 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="F230" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="G230" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="H230" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="I230" t="n">
-        <v>83000</v>
+        <v>307000</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8454,28 +8454,28 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="F231" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="H231" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I231" t="n">
-        <v>122000</v>
+        <v>146300</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="F232" t="n">
         <v>0.175</v>
@@ -8498,19 +8498,19 @@
         <v>0.165</v>
       </c>
       <c r="H232" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="I232" t="n">
-        <v>806500</v>
+        <v>159500</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8524,28 +8524,28 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G233" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="H233" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I233" t="n">
-        <v>5849800</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8559,28 +8559,28 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.18</v>
+        <v>0.165</v>
       </c>
       <c r="F234" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G234" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="H234" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="I234" t="n">
-        <v>791800</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8594,28 +8594,28 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G235" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="H235" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="I235" t="n">
-        <v>1449900</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8629,28 +8629,28 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="F236" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="G236" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H236" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="I236" t="n">
-        <v>1844300</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8664,28 +8664,28 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F237" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="G237" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H237" t="n">
-        <v>0.175</v>
+        <v>0.16</v>
       </c>
       <c r="I237" t="n">
-        <v>217000</v>
+        <v>516700</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8699,28 +8699,28 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="F238" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="G238" t="n">
         <v>0.165</v>
       </c>
       <c r="H238" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="I238" t="n">
-        <v>1511300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8734,28 +8734,28 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F239" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G239" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="H239" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I239" t="n">
-        <v>830200</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8769,28 +8769,28 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F240" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="G240" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H240" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="I240" t="n">
-        <v>671300</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8804,28 +8804,28 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="F241" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="G241" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="H241" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="I241" t="n">
-        <v>5679000</v>
+        <v>806500</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8839,28 +8839,28 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="F242" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="G242" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="H242" t="n">
         <v>0.18</v>
       </c>
       <c r="I242" t="n">
-        <v>4356600</v>
+        <v>5849800</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8874,10 +8874,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="F243" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G243" t="n">
         <v>0.175</v>
@@ -8886,16 +8886,16 @@
         <v>0.175</v>
       </c>
       <c r="I243" t="n">
-        <v>974000</v>
+        <v>791800</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8912,25 +8912,25 @@
         <v>0.175</v>
       </c>
       <c r="F244" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G244" t="n">
         <v>0.17</v>
       </c>
       <c r="H244" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="I244" t="n">
-        <v>629300</v>
+        <v>1449900</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8944,28 +8944,28 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="F245" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="G245" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="H245" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="I245" t="n">
-        <v>999400</v>
+        <v>1844300</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8979,28 +8979,28 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="G246" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="H246" t="n">
         <v>0.175</v>
       </c>
       <c r="I246" t="n">
-        <v>182500</v>
+        <v>217000</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9014,28 +9014,28 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G247" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="H247" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="I247" t="n">
-        <v>720000</v>
+        <v>1511300</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9049,28 +9049,28 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="F248" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G248" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="H248" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="I248" t="n">
-        <v>1029300</v>
+        <v>830200</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9084,28 +9084,28 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.185</v>
+        <v>0.17</v>
       </c>
       <c r="F249" t="n">
-        <v>0.19</v>
+        <v>0.175</v>
       </c>
       <c r="G249" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H249" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="I249" t="n">
-        <v>3604900</v>
+        <v>671300</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="F250" t="n">
         <v>0.185</v>
@@ -9128,19 +9128,19 @@
         <v>0.175</v>
       </c>
       <c r="H250" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="I250" t="n">
-        <v>636300</v>
+        <v>5679000</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9154,28 +9154,28 @@
         </is>
       </c>
       <c r="E251" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G251" t="n">
         <v>0.18</v>
       </c>
-      <c r="F251" t="n">
+      <c r="H251" t="n">
         <v>0.18</v>
       </c>
-      <c r="G251" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0.175</v>
-      </c>
       <c r="I251" t="n">
-        <v>2048200</v>
+        <v>4356600</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9192,25 +9192,25 @@
         <v>0.175</v>
       </c>
       <c r="F252" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="G252" t="n">
         <v>0.175</v>
       </c>
       <c r="H252" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="I252" t="n">
-        <v>1537600</v>
+        <v>974000</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9224,28 +9224,28 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="F253" t="n">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
       <c r="G253" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H253" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="I253" t="n">
-        <v>1470200</v>
+        <v>629300</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9259,7 +9259,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="F254" t="n">
         <v>0.18</v>
@@ -9268,19 +9268,19 @@
         <v>0.175</v>
       </c>
       <c r="H254" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="I254" t="n">
-        <v>2380900</v>
+        <v>999400</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9294,28 +9294,28 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F255" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G255" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="H255" t="n">
         <v>0.175</v>
       </c>
       <c r="I255" t="n">
-        <v>755200</v>
+        <v>182500</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9332,7 +9332,7 @@
         <v>0.175</v>
       </c>
       <c r="F256" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G256" t="n">
         <v>0.175</v>
@@ -9341,16 +9341,16 @@
         <v>0.175</v>
       </c>
       <c r="I256" t="n">
-        <v>1083300</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9367,7 +9367,7 @@
         <v>0.175</v>
       </c>
       <c r="F257" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G257" t="n">
         <v>0.175</v>
@@ -9376,16 +9376,16 @@
         <v>0.175</v>
       </c>
       <c r="I257" t="n">
-        <v>602900</v>
+        <v>1029300</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9399,28 +9399,28 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="F258" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G258" t="n">
         <v>0.18</v>
       </c>
-      <c r="G258" t="n">
-        <v>0.17</v>
-      </c>
       <c r="H258" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I258" t="n">
-        <v>1785300</v>
+        <v>3604900</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9440,22 +9440,22 @@
         <v>0.185</v>
       </c>
       <c r="G259" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="H259" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I259" t="n">
-        <v>2422400</v>
+        <v>636300</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9469,28 +9469,28 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="F260" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="G260" t="n">
         <v>0.175</v>
       </c>
       <c r="H260" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="I260" t="n">
-        <v>531100</v>
+        <v>2048200</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9507,25 +9507,25 @@
         <v>0.175</v>
       </c>
       <c r="F261" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="G261" t="n">
         <v>0.175</v>
       </c>
       <c r="H261" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="I261" t="n">
-        <v>893700</v>
+        <v>1537600</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9539,28 +9539,28 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="F262" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="G262" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H262" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="I262" t="n">
-        <v>834300</v>
+        <v>1470200</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9574,28 +9574,28 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F263" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G263" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="H263" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="I263" t="n">
-        <v>519000</v>
+        <v>2380900</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="F264" t="n">
         <v>0.175</v>
@@ -9621,16 +9621,16 @@
         <v>0.175</v>
       </c>
       <c r="I264" t="n">
-        <v>201500</v>
+        <v>755200</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9644,28 +9644,28 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="F265" t="n">
         <v>0.175</v>
       </c>
       <c r="G265" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="H265" t="n">
         <v>0.175</v>
       </c>
       <c r="I265" t="n">
-        <v>309000</v>
+        <v>1083300</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9679,28 +9679,28 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="F266" t="n">
         <v>0.175</v>
       </c>
       <c r="G266" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="H266" t="n">
         <v>0.175</v>
       </c>
       <c r="I266" t="n">
-        <v>79000</v>
+        <v>602900</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9717,25 +9717,25 @@
         <v>0.175</v>
       </c>
       <c r="F267" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G267" t="n">
         <v>0.17</v>
       </c>
       <c r="H267" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I267" t="n">
-        <v>795000</v>
+        <v>1785300</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9749,28 +9749,28 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F268" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="G268" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H268" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I268" t="n">
-        <v>471600</v>
+        <v>2422400</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9784,28 +9784,28 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="F269" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="G269" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="H269" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I269" t="n">
-        <v>266000</v>
+        <v>531100</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9819,28 +9819,28 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="F270" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G270" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="H270" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="I270" t="n">
-        <v>1303900</v>
+        <v>893700</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9854,28 +9854,28 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="F271" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G271" t="n">
         <v>0.17</v>
       </c>
-      <c r="G271" t="n">
-        <v>0.16</v>
-      </c>
       <c r="H271" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="I271" t="n">
-        <v>418800</v>
+        <v>834300</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9889,28 +9889,28 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="F272" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="G272" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="H272" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I272" t="n">
-        <v>338400</v>
+        <v>519000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9924,28 +9924,28 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="F273" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="G273" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="H273" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="I273" t="n">
-        <v>124800</v>
+        <v>201500</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9959,28 +9959,28 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="G274" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="H274" t="n">
-        <v>0.155</v>
+        <v>0.175</v>
       </c>
       <c r="I274" t="n">
-        <v>862000</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9994,28 +9994,28 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="G275" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="H275" t="n">
-        <v>0.155</v>
+        <v>0.175</v>
       </c>
       <c r="I275" t="n">
-        <v>470700</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10029,28 +10029,28 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="F276" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="G276" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="H276" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I276" t="n">
-        <v>219100</v>
+        <v>795000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10064,28 +10064,28 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="F277" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G277" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="H277" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="I277" t="n">
-        <v>270000</v>
+        <v>471600</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10099,28 +10099,28 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G278" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="H278" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I278" t="n">
-        <v>461600</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10134,28 +10134,28 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="F279" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G279" t="n">
-        <v>0.155</v>
+        <v>0.165</v>
       </c>
       <c r="H279" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I279" t="n">
-        <v>303000</v>
+        <v>1303900</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10169,28 +10169,28 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="F280" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G280" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H280" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I280" t="n">
-        <v>1761800</v>
+        <v>418800</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10204,28 +10204,28 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="F281" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="G281" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="H281" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="I281" t="n">
-        <v>940100</v>
+        <v>338400</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10239,28 +10239,28 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="F282" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="G282" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="H282" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="I282" t="n">
-        <v>227000</v>
+        <v>124800</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10274,53 +10274,368 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F283" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="G283" t="n">
-        <v>0.135</v>
+        <v>0.155</v>
       </c>
       <c r="H283" t="n">
-        <v>0.135</v>
+        <v>0.155</v>
       </c>
       <c r="I283" t="n">
-        <v>723500</v>
+        <v>862000</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I284" t="n">
+        <v>470700</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I285" t="n">
+        <v>219100</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I286" t="n">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I287" t="n">
+        <v>461600</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I288" t="n">
+        <v>303000</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1761800</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I290" t="n">
+        <v>940100</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I291" t="n">
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I292" t="n">
+        <v>723500</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>0205</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>DPIH</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
         <v>0.13</v>
       </c>
-      <c r="F284" t="n">
+      <c r="F293" t="n">
         <v>0.13</v>
       </c>
-      <c r="G284" t="n">
+      <c r="G293" t="n">
         <v>0.12</v>
       </c>
-      <c r="H284" t="n">
+      <c r="H293" t="n">
         <v>0.13</v>
       </c>
-      <c r="I284" t="n">
+      <c r="I293" t="n">
         <v>1608000</v>
       </c>
     </row>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10639,6 +10639,41 @@
         <v>1608000</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1084700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10674,6 +10674,41 @@
         <v>1084700</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1054000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10709,6 +10709,41 @@
         <v>1054000</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1846700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10744,6 +10744,41 @@
         <v>1846700</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1189500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10779,6 +10779,41 @@
         <v>1189500</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1382900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10814,6 +10814,41 @@
         <v>1382900</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1015000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10849,6 +10849,41 @@
         <v>1015000</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>987000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10884,6 +10884,41 @@
         <v>987000</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1100700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10919,6 +10919,41 @@
         <v>1100700</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>454100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10954,6 +10954,41 @@
         <v>454100</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>354900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10989,6 +10989,41 @@
         <v>354900</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>502000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11024,6 +11024,41 @@
         <v>502000</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I305" t="n">
+        <v>832400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11059,6 +11059,41 @@
         <v>832400</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1502500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11094,6 +11094,41 @@
         <v>1502500</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I307" t="n">
+        <v>90400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11129,6 +11129,41 @@
         <v>90400</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I308" t="n">
+        <v>806500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11164,6 +11164,41 @@
         <v>806500</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I309" t="n">
+        <v>509700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11199,6 +11199,41 @@
         <v>509700</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1229300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11234,6 +11234,41 @@
         <v>1229300</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I311" t="n">
+        <v>303800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11269,6 +11269,41 @@
         <v>303800</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I312" t="n">
+        <v>780600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11304,6 +11304,41 @@
         <v>780600</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I313" t="n">
+        <v>391800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11339,6 +11339,41 @@
         <v>391800</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I314" t="n">
+        <v>608500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11374,6 +11374,41 @@
         <v>608500</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I315" t="n">
+        <v>74000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I315"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11409,6 +11409,41 @@
         <v>74000</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I316" t="n">
+        <v>921500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11444,6 +11444,41 @@
         <v>921500</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I317" t="n">
+        <v>223000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11479,6 +11479,41 @@
         <v>223000</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I318" t="n">
+        <v>2277800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11514,6 +11514,76 @@
         <v>2277800</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1851500</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I320" t="n">
+        <v>519600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11584,6 +11584,41 @@
         <v>519600</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I321" t="n">
+        <v>345800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11619,6 +11619,111 @@
         <v>345800</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I322" t="n">
+        <v>655000</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1011400</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3662800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11724,6 +11724,41 @@
         <v>3662800</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3435100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11759,6 +11759,41 @@
         <v>3435100</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1949800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0205.xlsx
+++ b/data/0205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11794,6 +11794,111 @@
         <v>1949800</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I327" t="n">
+        <v>698500</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I328" t="n">
+        <v>883300</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>DPIH</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I329" t="n">
+        <v>983900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
